--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,67 +40,79 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>worse</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>fuck</t>
@@ -109,33 +121,12 @@
     <t>sick</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -172,100 +163,94 @@
     <t>great</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
+    <t>first</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>top</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>many</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>documentary</t>
+    <t>’</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>…</t>
@@ -629,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -748,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9326923076923077</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -798,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -848,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -898,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,16 +904,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.7368421052631579</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,16 +1054,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.7241379310344828</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,10 +1086,10 @@
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,16 +1154,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.68</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1183,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1233,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7647058823529411</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K15">
         <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.5384615384615384</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.5263157894736842</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K18">
         <v>0.4615384615384616</v>
@@ -1498,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,16 +1504,16 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.4242424242424243</v>
+        <v>0.4375</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1540,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1533,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.3958333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,13 +1583,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6382978723404256</v>
+        <v>0.65</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1616,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.25</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,16 +1654,16 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.23224043715847</v>
+        <v>0.2404371584699453</v>
       </c>
       <c r="L22">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M22">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>843</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1716,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.2195121951219512</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1748,13 +1733,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6086956521739131</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.2033898305084746</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,38 +1783,38 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25">
+        <v>0.1521739130434783</v>
+      </c>
+      <c r="L25">
         <v>7</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>7</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="L25">
-        <v>9</v>
-      </c>
-      <c r="M25">
-        <v>9</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
@@ -1840,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,13 +1833,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1866,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.1639344262295082</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,13 +1883,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5507246376811594</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C27">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1916,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.1549295774647887</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1940,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,13 +1933,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5384615384615384</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1966,19 +1951,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.1473684210526316</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1990,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,13 +1983,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2016,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.1304347826086956</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2040,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2048,13 +2033,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2066,19 +2051,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.1296296296296296</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2098,7 +2083,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2116,19 +2101,19 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="L31">
         <v>6</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="L31">
-        <v>8</v>
-      </c>
       <c r="M31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2140,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2148,13 +2133,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4705882352941176</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2166,19 +2151,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.0958904109589041</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2190,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>66</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2198,13 +2183,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2216,19 +2201,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.08235294117647059</v>
+        <v>0.0286144578313253</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2240,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>78</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2248,13 +2233,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4615384615384616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2266,19 +2251,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K34">
-        <v>0.03333333333333333</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2290,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>522</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2298,13 +2283,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4583333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2316,19 +2301,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K35">
-        <v>0.02932551319648094</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2340,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>331</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2348,13 +2333,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3928571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2366,19 +2351,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K36">
-        <v>0.02120141342756184</v>
+        <v>0.02304737516005122</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2390,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>277</v>
+        <v>763</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2398,13 +2383,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3333333333333333</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2416,19 +2401,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K37">
-        <v>0.01948051948051948</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2440,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2448,37 +2433,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3333333333333333</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K38">
-        <v>0.01920614596670935</v>
+        <v>0.01497695852534562</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2490,133 +2475,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>20</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K39">
-        <v>0.01809954751131222</v>
-      </c>
-      <c r="L39">
-        <v>12</v>
-      </c>
-      <c r="M39">
-        <v>13</v>
-      </c>
-      <c r="N39">
-        <v>0.92</v>
-      </c>
-      <c r="O39">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-      <c r="D40">
-        <v>9</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>69</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K40">
-        <v>0.01670506912442396</v>
-      </c>
-      <c r="L40">
-        <v>29</v>
-      </c>
-      <c r="M40">
-        <v>29</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.03378378378378379</v>
-      </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>13</v>
-      </c>
-      <c r="E41">
-        <v>0.23</v>
-      </c>
-      <c r="F41">
-        <v>0.77</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>286</v>
+        <v>1710</v>
       </c>
     </row>
   </sheetData>
